--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -85,6 +88,15 @@
     <t>2016-01-25 03:18:40</t>
   </si>
   <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:21:12</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:21:55</t>
+  </si>
+  <si>
     <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf</t>
   </si>
   <si>
@@ -101,6 +113,15 @@
   </si>
   <si>
     <t>2016-01-25 03:18:56</t>
+  </si>
+  <si>
+    <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:21:23</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:22:12</t>
   </si>
 </sst>
 </file>
@@ -205,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,10 +270,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c581042a-d6d5-4f26-980c-3c1b59453863.md" r:id="rId2"/>
     <hyperlink ref="A3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +315,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -317,22 +350,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -343,22 +376,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -371,6 +430,10 @@
     <hyperlink ref="C3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId8"/>
     <hyperlink ref="F3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -381,7 +444,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,31 +463,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -435,22 +498,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -461,22 +524,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -489,6 +578,10 @@
     <hyperlink ref="C3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.md" r:id="rId8"/>
     <hyperlink ref="F3" display="f2c27ab1-8f74-4493-98ba-a7649837cbf6.a45b7595bce6941660e6dd85dc4c102f066ae408.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -91,10 +91,10 @@
     <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:21:12</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:21:55</t>
+    <t>2016-01-25 03:22:56</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:25:13</t>
   </si>
   <si>
     <t>c581042a-d6d5-4f26-980c-3c1b59453863.456f53ebdd5870a037cb78b92a0cb5b7c05fbbe0.de-de.xlf</t>
@@ -118,10 +118,10 @@
     <t>d2197cfc-e04f-4f70-82b3-2a0481c42435.fe8ad8247747e6fde9cda147b27e4dd68e3dd304.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:21:23</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:22:12</t>
+    <t>2016-01-25 03:23:07</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:25:32</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-25 03:38:37</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:39:28</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-25 03:36:25</t>
   </si>
   <si>
     <t>2016-01-25 03:37:17</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-25 03:38:49</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:39:44</t>
+  </si>
+  <si>
+    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-25 03:36:37</t>
   </si>
   <si>
     <t>2016-01-25 03:37:33</t>
-  </si>
-  <si>
-    <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:38:37</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:39:28</t>
+    <t>2016-01-25 03:40:15</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:40:59</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>2ac41cb1-a240-442c-a524-4efa10ef2ca6.df4bfcc7f35b9f2688b33325409ea6aadb12d18f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 03:38:49</t>
-  </si>
-  <si>
-    <t>2016-01-25 03:39:44</t>
+    <t>2016-01-25 03:40:25</t>
+  </si>
+  <si>
+    <t>2016-01-25 03:41:16</t>
   </si>
   <si>
     <t>340eefdd-c01c-4f44-96d8-19a1448a7aab.05a2c2c3a444464970b708d766c35f4ba88bb0ce.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -82,10 +82,10 @@
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 04:03:55</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:04:34</t>
+    <t>2016-01-25 04:05:37</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:06:20</t>
   </si>
   <si>
     <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
@@ -100,10 +100,10 @@
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 04:04:06</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:04:52</t>
+    <t>2016-01-25 04:05:47</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:06:37</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -82,10 +82,10 @@
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 04:05:37</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:06:20</t>
+    <t>2016-01-25 04:07:19</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:08:05</t>
   </si>
   <si>
     <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
@@ -100,10 +100,10 @@
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-25 04:05:47</t>
-  </si>
-  <si>
-    <t>2016-01-25 04:06:37</t>
+    <t>2016-01-25 04:07:30</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:08:23</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -40,6 +40,12 @@
     <t>865ddbfb-e348-460f-859b-030bdc325eb9.md</t>
   </si>
   <si>
+    <t>714ecca4-932a-4e0c-b868-8c49024e8a03.md</t>
+  </si>
+  <si>
+    <t>fc918ef0-aef6-4038-ba43-4515b638967f.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -88,6 +94,18 @@
     <t>2016-01-25 04:08:05</t>
   </si>
   <si>
+    <t>714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:09:11</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:09:57</t>
+  </si>
+  <si>
+    <t>fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>4f872ba6-5f5e-4fed-ae4b-08952f4241ec.3582d9695a9dd21afa17630a94680e3c8b126d09.de-de.xlf</t>
   </si>
   <si>
@@ -104,6 +122,18 @@
   </si>
   <si>
     <t>2016-01-25 04:08:23</t>
+  </si>
+  <si>
+    <t>714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:09:22</t>
+  </si>
+  <si>
+    <t>2016-01-25 04:10:17</t>
+  </si>
+  <si>
+    <t>fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -208,7 +238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -274,12 +304,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4f872ba6-5f5e-4fed-ae4b-08952f4241ec.md" r:id="rId2"/>
     <hyperlink ref="A3" display="ffff733116a9-d2b7-4004-8f23-79f05e03e5b8.md" r:id="rId3"/>
     <hyperlink ref="A4" display="ffffff5c4452c2-b997-4aa4-a951-c8bed0ec560f.md" r:id="rId4"/>
     <hyperlink ref="A5" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -290,7 +344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -309,31 +363,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -344,22 +398,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -370,22 +424,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -396,22 +450,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -422,22 +476,74 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -458,6 +564,14 @@
     <hyperlink ref="C5" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId16"/>
     <hyperlink ref="F5" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="E7" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId24"/>
+    <hyperlink ref="F7" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.zh-cn.xlf" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -468,7 +582,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,31 +601,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +636,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +662,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -574,22 +688,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -600,22 +714,74 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -636,6 +802,14 @@
     <hyperlink ref="C5" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="865ddbfb-e348-460f-859b-030bdc325eb9.md" r:id="rId16"/>
     <hyperlink ref="F5" display="865ddbfb-e348-460f-859b-030bdc325eb9.d521806228e9e9c94733ee6eb4c8fc973b7a4bff.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="714ecca4-932a-4e0c-b868-8c49024e8a03.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="714ecca4-932a-4e0c-b868-8c49024e8a03.2346fe218e0cedd330cc717d90231c448b7c79fa.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="E7" display="fc918ef0-aef6-4038-ba43-4515b638967f.md" r:id="rId24"/>
+    <hyperlink ref="F7" display="fc918ef0-aef6-4038-ba43-4515b638967f.2996531b8178068b631e3a3829988717036ba9db.de-de.xlf" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -85,6 +88,15 @@
     <t>2016-03-04 10:18:30</t>
   </si>
   <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:21:22</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:22:16</t>
+  </si>
+  <si>
     <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf</t>
   </si>
   <si>
@@ -101,6 +113,15 @@
   </si>
   <si>
     <t>2016-03-04 10:18:50</t>
+  </si>
+  <si>
+    <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:21:35</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:22:41</t>
   </si>
 </sst>
 </file>
@@ -205,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,10 +270,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1a074949-8159-4044-af6e-13f93f8e43e3.md" r:id="rId2"/>
     <hyperlink ref="A3" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +315,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -317,22 +350,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -343,22 +376,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -371,6 +430,10 @@
     <hyperlink ref="C3" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId8"/>
     <hyperlink ref="F3" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -381,7 +444,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,31 +463,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -435,22 +498,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -461,22 +524,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -489,6 +578,10 @@
     <hyperlink ref="C3" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.md" r:id="rId8"/>
     <hyperlink ref="F3" display="2291a6aa-fa1a-4622-b6e6-71faa470e61f.ee29a6e0dc16ac4a8338fd020a8937d60ebc5a81.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -91,10 +91,10 @@
     <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:21:22</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:22:16</t>
+    <t>2016-03-04 10:23:31</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:25:01</t>
   </si>
   <si>
     <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf</t>
@@ -118,10 +118,10 @@
     <t>65847a73-ee7e-4e52-8f62-ce062c2a76e1.1d1bd48b3f99b1cdf23b475930c96e30bbca2ef3.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:21:35</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:22:41</t>
+    <t>2016-03-04 10:23:46</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:25:29</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>File Name</t>
   </si>
@@ -121,15 +121,21 @@
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-03-04 10:37:23</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:38:39</t>
+  </si>
+  <si>
+    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-03-04 10:33:57</t>
   </si>
   <si>
     <t>2016-03-04 10:35:26</t>
   </si>
   <si>
-    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>1a074949-8159-4044-af6e-13f93f8e43e3.31402265285413c8f21d97a5e66318f15fe231be.de-de.xlf</t>
   </si>
   <si>
@@ -169,13 +175,19 @@
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-03-04 10:37:38</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:39:16</t>
+  </si>
+  <si>
+    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-03-04 10:34:24</t>
   </si>
   <si>
     <t>2016-03-04 10:35:56</t>
-  </si>
-  <si>
-    <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -611,7 +623,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -620,7 +632,7 @@
         <v>37</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>24</v>
@@ -720,19 +732,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>24</v>
@@ -746,19 +758,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>24</v>
@@ -772,19 +784,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>24</v>
@@ -798,19 +810,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>24</v>
@@ -824,19 +836,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>24</v>
@@ -850,19 +862,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>24</v>
@@ -876,19 +888,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>24</v>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -121,10 +121,10 @@
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:37:23</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:38:39</t>
+    <t>2016-03-04 10:40:28</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:41:56</t>
   </si>
   <si>
     <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.zh-cn.xlf</t>
@@ -175,10 +175,10 @@
     <t>53c085fd-5667-423f-8a02-49549d104e8a.5a9fd19638c6395893da460e01415aef86d1e938.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 10:37:38</t>
-  </si>
-  <si>
-    <t>2016-03-04 10:39:16</t>
+    <t>2016-03-04 10:40:46</t>
+  </si>
+  <si>
+    <t>2016-03-04 10:42:22</t>
   </si>
   <si>
     <t>881e8290-7fe8-4de3-b4bb-24bcc923c19a.41d6c6b006b26dce966533f0d042eab669769788.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -202,10 +202,10 @@
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:10:09</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:11:16</t>
+    <t>2016-03-04 11:12:45</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:13:49</t>
   </si>
   <si>
     <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
@@ -220,10 +220,10 @@
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:10:24</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:11:44</t>
+    <t>2016-03-04 11:13:01</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:14:23</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -202,10 +202,10 @@
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:12:45</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:13:49</t>
+    <t>2016-03-04 11:15:32</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:16:55</t>
   </si>
   <si>
     <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
@@ -220,10 +220,10 @@
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:13:01</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:14:23</t>
+    <t>2016-03-04 11:15:57</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:17:18</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>File Name</t>
   </si>
@@ -79,6 +79,12 @@
     <t>dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md</t>
   </si>
   <si>
+    <t>8cf2bef8-49a3-4622-9fdf-63cc85a923af.md</t>
+  </si>
+  <si>
+    <t>e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -208,6 +214,18 @@
     <t>2016-03-04 11:16:55</t>
   </si>
   <si>
+    <t>8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:18:22</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:19:35</t>
+  </si>
+  <si>
+    <t>e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>617b5400-e27b-4269-bf2c-0532877aa549.3485b3f130250f9670cc4c318f4fa47dd7fafe79.de-de.xlf</t>
   </si>
   <si>
@@ -224,6 +242,18 @@
   </si>
   <si>
     <t>2016-03-04 11:17:18</t>
+  </si>
+  <si>
+    <t>8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:18:45</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:19:57</t>
+  </si>
+  <si>
+    <t>e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -328,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,6 +542,28 @@
         <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -532,6 +584,8 @@
     <hyperlink ref="A14" display="ffff30bae099-e70f-4860-adae-fa1bd61ee460.md" r:id="rId14"/>
     <hyperlink ref="A15" display="ffffff6afb98a2-67bc-4606-b8ea-74d3c903f722.md" r:id="rId15"/>
     <hyperlink ref="A16" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -542,7 +596,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,31 +615,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -596,22 +650,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -622,22 +676,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -648,22 +702,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -674,22 +728,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -700,22 +754,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -726,22 +780,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -752,22 +806,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -778,22 +832,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -804,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -830,22 +884,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -856,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +936,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -908,22 +962,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -934,22 +988,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -960,22 +1014,74 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1040,6 +1146,14 @@
     <hyperlink ref="C16" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId59"/>
     <hyperlink ref="E16" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId60"/>
     <hyperlink ref="F16" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId62"/>
+    <hyperlink ref="C17" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="E17" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId64"/>
+    <hyperlink ref="F17" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A18" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId66"/>
+    <hyperlink ref="C18" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="E18" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId68"/>
+    <hyperlink ref="F18" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.zh-cn.xlf" r:id="rId69"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1050,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1069,31 +1183,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -1104,22 +1218,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1130,22 +1244,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1156,22 +1270,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1182,22 +1296,74 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1218,6 +1384,14 @@
     <hyperlink ref="C5" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.md" r:id="rId16"/>
     <hyperlink ref="F5" display="dff6ead6-54db-498d-bd8c-d7d62aecbe3e.5dae3c21ad6bbca523b434c1ce15e208ac6e6f06.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="8cf2bef8-49a3-4622-9fdf-63cc85a923af.2a6d29f3243dcede4a327e75020ea14878ca5d66.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="E7" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.md" r:id="rId24"/>
+    <hyperlink ref="F7" display="e343ff2f-2d1d-4b38-9ee1-44b5a6cfd911.c6ed69a151098dcf3b53b83a037c6841402ad530.de-de.xlf" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/qimu/handback-status.xlsx
@@ -241,10 +241,10 @@
     <t>2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:22:38</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:23:55</t>
+    <t>2016-03-04 11:25:20</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:26:15</t>
   </si>
   <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.zh-cn.xlf</t>
@@ -283,10 +283,10 @@
     <t>2a54065f-65f3-49fd-b809-dab32fcc3d26.1037efcdfc3ca57e79e6fee63fb2df141256c06e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 11:22:57</t>
-  </si>
-  <si>
-    <t>2016-03-04 11:24:18</t>
+    <t>2016-03-04 11:25:33</t>
+  </si>
+  <si>
+    <t>2016-03-04 11:26:41</t>
   </si>
   <si>
     <t>e2fbda3d-f208-4a2a-bb8f-b19e4aaf2964.6acd4e771d40759ddadc2e8678c4f07621ec4b51.de-de.xlf</t>
